--- a/biology/Zoologie/Heptathelidae/Heptathelidae.xlsx
+++ b/biology/Zoologie/Heptathelidae/Heptathelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heptathelidae sont une famille d'araignées mésothèles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heptathelidae sont une famille d'araignées mésothèles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie de l'Est et en Asie du Sud-Est[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie de l'Est et en Asie du Sud-Est. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles portent encore des traces de métamérisation au niveau de l'abdomen. Leurs filières sont placées au milieu de leur abdomen.
 Elles possèdent des tergites sur tous les segments abdominaux.
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 07/06/2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 07/06/2022) :
 Ganthela Xu &amp; Kuntner, 2015
 Heptathela Kishida, 1923
 Luthela Xu &amp; Li, 2022
@@ -642,11 +662,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Kishida en 1923 comme une tribu des Liphistiidae. Elle est élevée au rang de famille par Petrunkevitch en 1939[4], placées en synonymie avec les Liphistiidae par Raven en 1985[5], ont été relevées de synonymie par Li en 2022[6].
-Elle rassemble 107 espèces dans sept genres[1].
-Sinothela Haupt, 2003 a été déclaré nomen dubium par Xu, Yu, Liu et Li en 2022[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Kishida en 1923 comme une tribu des Liphistiidae. Elle est élevée au rang de famille par Petrunkevitch en 1939, placées en synonymie avec les Liphistiidae par Raven en 1985, ont été relevées de synonymie par Li en 2022.
+Elle rassemble 107 espèces dans sept genres.
+Sinothela Haupt, 2003 a été déclaré nomen dubium par Xu, Yu, Liu et Li en 2022.
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Kishida, 1923 : « Heptathela, a new genus of liphistiid spiders. » Annotationes Zoologicae Japonenses, vol. 10, p. 235-242.</t>
         </is>
